--- a/server/src/main/resources/templates/template-app.xlsx
+++ b/server/src/main/resources/templates/template-app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D459C9C-B5EA-4237-A982-1F3544268511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121100-D596-4FE0-9067-C34DAEA408E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="3735" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -438,6 +438,9 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -446,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,7 +767,8 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,14 +781,14 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -805,8 +806,15 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{C2C463DB-E83F-4E6B-8CF3-D98C9F619E11}">
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用名称填写错误" error="应用名称长度范围1~16位" promptTitle="应用名称" prompt="必填，应用名称唯一，且长度范围1~16位" sqref="A2:A1048576" xr:uid="{5C8636CF-AFAD-459D-A562-902688CB0285}">
+      <formula1>1</formula1>
+      <formula2>16</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用首页填写错误" error="长度范围0~255" promptTitle="应用首页" prompt="应用中转页" sqref="B2:B1048576" xr:uid="{442015A1-FCA0-4C09-B890-D3BB11B647AA}">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="应用状态" prompt="必填，已激活的应用，应用下的所有对象才可正常使用" sqref="C2:C1048576" xr:uid="{6C81A591-6D62-4588-A4CF-B5023277570C}">
       <formula1>"未激活,已激活"</formula1>
     </dataValidation>
   </dataValidations>

--- a/server/src/main/resources/templates/template-app.xlsx
+++ b/server/src/main/resources/templates/template-app.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D121100-D596-4FE0-9067-C34DAEA408E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D436B2-BA95-4D9A-BB1E-26AD4E376F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -768,13 +768,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="104.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="98.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -807,14 +807,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用名称填写错误" error="应用名称长度范围1~16位" promptTitle="应用名称" prompt="必填，应用名称唯一，且长度范围1~16位" sqref="A2:A1048576" xr:uid="{5C8636CF-AFAD-459D-A562-902688CB0285}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用名称填写错误" error="应用名称长度范围1~16位" promptTitle="应用名称" prompt="必填，应用名称唯一，且长度范围1~16位" sqref="A3:A1048576" xr:uid="{5C8636CF-AFAD-459D-A562-902688CB0285}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用首页填写错误" error="长度范围0~255" promptTitle="应用首页" prompt="应用中转页" sqref="B2:B1048576" xr:uid="{442015A1-FCA0-4C09-B890-D3BB11B647AA}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="应用首页填写错误" error="长度范围0~255" promptTitle="应用首页" prompt="应用中转页" sqref="B3:B1048576" xr:uid="{442015A1-FCA0-4C09-B890-D3BB11B647AA}">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="应用状态" prompt="必填，已激活的应用，应用下的所有对象才可正常使用" sqref="C2:C1048576" xr:uid="{6C81A591-6D62-4588-A4CF-B5023277570C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="应用状态" prompt="必填，已激活的应用，应用下的所有对象才可正常使用" sqref="C3:C1048576" xr:uid="{6C81A591-6D62-4588-A4CF-B5023277570C}">
       <formula1>"未激活,已激活"</formula1>
     </dataValidation>
   </dataValidations>

--- a/server/src/main/resources/templates/template-app.xlsx
+++ b/server/src/main/resources/templates/template-app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D436B2-BA95-4D9A-BB1E-26AD4E376F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BF609D-E289-4B56-8785-DBC53E58332D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="4710" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -89,6 +85,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>应用回调地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>注意：表头携带“</t>
     </r>
@@ -173,18 +173,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>应用首页：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">使用认证服务登录指定应用，登录成功后，会将登录成功信息拼接到地址参数中，然后进行跳转。注意，已激活的应用，应用首页必填。
+      <t>应用回调地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">使用认证服务登录指定应用，登录成功后，会将登录成功信息拼接到地址参数中，然后进行跳转。注意，已激活的应用，地址必填。
 </t>
     </r>
     <r>
@@ -768,12 +768,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,16 +791,16 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
